--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_20_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_20_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64103.69982241259</v>
+        <v>12668526.09732684</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64103.69982241259</v>
+        <v>12668526.09732684</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6279.691152038576</v>
+        <v>764022.4344358498</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6279.691152038576</v>
+        <v>764022.4344358498</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266078276.0643</v>
+        <v>51983418.03592159</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10828.97893794816</v>
+        <v>1215017.325372236</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20508.54995278677</v>
+        <v>2252254.407063002</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30188.12096762504</v>
+        <v>3289491.488753816</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39907.71925508558</v>
+        <v>4329043.180793311</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49617.02259305129</v>
+        <v>5366546.177883296</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>59326.32593101665</v>
+        <v>6404049.174973334</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69035.62926898101</v>
+        <v>7441552.172063582</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78744.93260694671</v>
+        <v>8479055.169153554</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88321.29499210899</v>
+        <v>9469787.578940857</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97789.63333862729</v>
+        <v>10505445.31379397</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>107257.9716851456</v>
+        <v>11541103.0486471</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>116662.6435368516</v>
+        <v>12572990.08632092</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>126087.9052875475</v>
+        <v>13608017.08359072</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>136002.5262602007</v>
+        <v>14570823.4753946</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>146191.5004811558</v>
+        <v>15492765.83230038</v>
       </c>
     </row>
   </sheetData>
@@ -27040,7 +27040,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>5.531003458891064e-11</v>
@@ -27055,10 +27055,10 @@
         <v>10.00000000005531</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>394.9999999999447</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>346</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
